--- a/data/pca/factorExposure/factorExposure_2011-02-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.008961714604339994</v>
+        <v>0.01540197774611279</v>
       </c>
       <c r="C2">
-        <v>-0.0002081869860419537</v>
+        <v>-0.002801534588019598</v>
       </c>
       <c r="D2">
-        <v>-0.02825068145277648</v>
+        <v>0.003278720521830628</v>
       </c>
       <c r="E2">
-        <v>-0.02434282747870582</v>
+        <v>-0.0167738432777922</v>
       </c>
       <c r="F2">
-        <v>-0.008226639383741647</v>
+        <v>-0.003980703642949268</v>
       </c>
       <c r="G2">
-        <v>0.01375953435542553</v>
+        <v>0.02221617626390923</v>
       </c>
       <c r="H2">
-        <v>-0.06703981650485005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01151848942656789</v>
+      </c>
+      <c r="I2">
+        <v>0.006350357886366322</v>
+      </c>
+      <c r="J2">
+        <v>0.01191581697008142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1099875488133388</v>
+        <v>0.1244538927568937</v>
       </c>
       <c r="C4">
-        <v>0.01762314673678881</v>
+        <v>-0.05057948612139779</v>
       </c>
       <c r="D4">
-        <v>-0.06532186148940806</v>
+        <v>0.00859644089236869</v>
       </c>
       <c r="E4">
-        <v>-0.05342115493750254</v>
+        <v>0.0009808821915355699</v>
       </c>
       <c r="F4">
-        <v>-0.01126680808206502</v>
+        <v>0.009310131683939646</v>
       </c>
       <c r="G4">
-        <v>0.03909611050106828</v>
+        <v>-0.01566204252094179</v>
       </c>
       <c r="H4">
-        <v>0.03443744427009075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.06108536358798709</v>
+      </c>
+      <c r="I4">
+        <v>-0.08867927099970678</v>
+      </c>
+      <c r="J4">
+        <v>-0.07352889516459753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1269425392992207</v>
+        <v>0.1224529006628497</v>
       </c>
       <c r="C6">
-        <v>0.0222257510288144</v>
+        <v>0.01498640674708359</v>
       </c>
       <c r="D6">
-        <v>0.04545231561685591</v>
+        <v>0.01597354919266267</v>
       </c>
       <c r="E6">
-        <v>-0.03688515157738525</v>
+        <v>-0.01765677193513066</v>
       </c>
       <c r="F6">
-        <v>0.2335228904526197</v>
+        <v>-0.02463636197951968</v>
       </c>
       <c r="G6">
-        <v>-0.1809896728852315</v>
+        <v>-0.04233578811034333</v>
       </c>
       <c r="H6">
-        <v>0.2357845877012416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.03772558447693652</v>
+      </c>
+      <c r="I6">
+        <v>-0.04643795537044938</v>
+      </c>
+      <c r="J6">
+        <v>0.1447275241040141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.08710734595803854</v>
+        <v>0.07662823159831696</v>
       </c>
       <c r="C7">
-        <v>0.03998874899299227</v>
+        <v>-0.04317917695350883</v>
       </c>
       <c r="D7">
-        <v>-0.02823506604182334</v>
+        <v>0.03481667164515782</v>
       </c>
       <c r="E7">
-        <v>-0.04696066573584793</v>
+        <v>-0.03605734860221761</v>
       </c>
       <c r="F7">
-        <v>0.002267126860502526</v>
+        <v>-0.00311015985754577</v>
       </c>
       <c r="G7">
-        <v>-0.001937701297621773</v>
+        <v>0.04345463618687229</v>
       </c>
       <c r="H7">
-        <v>0.01422155260051314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.03227725691996349</v>
+      </c>
+      <c r="I7">
+        <v>0.007784817436350529</v>
+      </c>
+      <c r="J7">
+        <v>-0.06884936217455995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03909630248928431</v>
+        <v>0.05349868394933381</v>
       </c>
       <c r="C8">
-        <v>-0.03948437793797749</v>
+        <v>-0.0059806314368375</v>
       </c>
       <c r="D8">
-        <v>-0.06469620282542317</v>
+        <v>0.007291160976442582</v>
       </c>
       <c r="E8">
-        <v>-0.09770838897650762</v>
+        <v>-0.02529450523735951</v>
       </c>
       <c r="F8">
-        <v>0.05500120101869979</v>
+        <v>0.02225605505217165</v>
       </c>
       <c r="G8">
-        <v>0.1547003712938602</v>
+        <v>-0.02605655769095335</v>
       </c>
       <c r="H8">
-        <v>0.08962228393882928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.08003789526215128</v>
+      </c>
+      <c r="I8">
+        <v>-0.08477391773505499</v>
+      </c>
+      <c r="J8">
+        <v>-0.02004709855530376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0955097033312361</v>
+        <v>0.09810526933378899</v>
       </c>
       <c r="C9">
-        <v>0.03338856110723211</v>
+        <v>-0.04982447076178766</v>
       </c>
       <c r="D9">
-        <v>-0.04164638426815462</v>
+        <v>-0.008199387430397788</v>
       </c>
       <c r="E9">
-        <v>-0.04611585573089701</v>
+        <v>-0.01160977280309246</v>
       </c>
       <c r="F9">
-        <v>0.0207664934260533</v>
+        <v>0.01896792285124788</v>
       </c>
       <c r="G9">
-        <v>0.07332347431704805</v>
+        <v>-0.004521190965771341</v>
       </c>
       <c r="H9">
-        <v>0.05469400159934548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.06976677674943914</v>
+      </c>
+      <c r="I9">
+        <v>-0.06783015144510408</v>
+      </c>
+      <c r="J9">
+        <v>-0.04656544494337354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.04075875086894357</v>
+        <v>0.05987018731092574</v>
       </c>
       <c r="C10">
-        <v>-0.1768868431967074</v>
+        <v>0.1895805121935605</v>
       </c>
       <c r="D10">
-        <v>-0.0120557853860601</v>
+        <v>-0.003367024007048101</v>
       </c>
       <c r="E10">
-        <v>-0.09556003399927723</v>
+        <v>0.0001159300660151846</v>
       </c>
       <c r="F10">
-        <v>0.03080042272513731</v>
+        <v>0.005331970388014068</v>
       </c>
       <c r="G10">
-        <v>-0.04079618299826854</v>
+        <v>0.05797892324137036</v>
       </c>
       <c r="H10">
-        <v>0.02613755040007987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.02123272837329872</v>
+      </c>
+      <c r="I10">
+        <v>-0.01638324351771581</v>
+      </c>
+      <c r="J10">
+        <v>-0.02052252728312157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.07739098254003882</v>
+        <v>0.09403830620188799</v>
       </c>
       <c r="C11">
-        <v>0.05579988671685579</v>
+        <v>-0.06792522241448834</v>
       </c>
       <c r="D11">
-        <v>0.02065379247196931</v>
+        <v>0.02902348224354397</v>
       </c>
       <c r="E11">
-        <v>-0.01598826279162587</v>
+        <v>-0.0405281022559843</v>
       </c>
       <c r="F11">
-        <v>0.01197867225407956</v>
+        <v>0.06359306023736318</v>
       </c>
       <c r="G11">
-        <v>0.1416162123930326</v>
+        <v>-0.02912433052947761</v>
       </c>
       <c r="H11">
-        <v>-0.03855247486579611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.08738251129955514</v>
+      </c>
+      <c r="I11">
+        <v>-0.06547170786298799</v>
+      </c>
+      <c r="J11">
+        <v>-0.01642956202443808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0765780378076375</v>
+        <v>0.1004514285199933</v>
       </c>
       <c r="C12">
-        <v>0.03053238914795167</v>
+        <v>-0.07065645005336733</v>
       </c>
       <c r="D12">
-        <v>-0.01478908944156482</v>
+        <v>0.03034883334135299</v>
       </c>
       <c r="E12">
-        <v>-0.01019717050398057</v>
+        <v>-0.04269355619555383</v>
       </c>
       <c r="F12">
-        <v>0.05685083982231213</v>
+        <v>0.07642891329527904</v>
       </c>
       <c r="G12">
-        <v>0.1374654839506568</v>
+        <v>-0.01757161658763064</v>
       </c>
       <c r="H12">
-        <v>-0.03876883935561477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.09486861946859003</v>
+      </c>
+      <c r="I12">
+        <v>-0.05079800922272937</v>
+      </c>
+      <c r="J12">
+        <v>-0.004273169104665102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06403636419791524</v>
+        <v>0.04636634204652864</v>
       </c>
       <c r="C13">
-        <v>0.001215625923328765</v>
+        <v>-0.01691717373235462</v>
       </c>
       <c r="D13">
-        <v>-0.02682790495087632</v>
+        <v>-0.02854590434204344</v>
       </c>
       <c r="E13">
-        <v>-0.01043352047892199</v>
+        <v>-0.009061236518954324</v>
       </c>
       <c r="F13">
-        <v>-0.02181044313336677</v>
+        <v>8.403963567336616e-05</v>
       </c>
       <c r="G13">
-        <v>0.118619348925739</v>
+        <v>-0.01197556195746811</v>
       </c>
       <c r="H13">
-        <v>0.05215963911063629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.07573648462590188</v>
+      </c>
+      <c r="I13">
+        <v>-0.03234358775607898</v>
+      </c>
+      <c r="J13">
+        <v>0.001218058750442527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.05128045144457032</v>
+        <v>0.03173296716614629</v>
       </c>
       <c r="C14">
-        <v>0.01096532194031361</v>
+        <v>-0.006165933723016726</v>
       </c>
       <c r="D14">
-        <v>-0.01986898222458576</v>
+        <v>0.004878965679021163</v>
       </c>
       <c r="E14">
-        <v>-0.04888612873777246</v>
+        <v>-0.0004403871336302834</v>
       </c>
       <c r="F14">
-        <v>-0.007429765009824231</v>
+        <v>0.01517794353905595</v>
       </c>
       <c r="G14">
-        <v>0.01523831170295466</v>
+        <v>0.001737761275599892</v>
       </c>
       <c r="H14">
-        <v>0.1479033165127684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.02682608610670753</v>
+      </c>
+      <c r="I14">
+        <v>-0.03018440081778727</v>
+      </c>
+      <c r="J14">
+        <v>-0.1102691020740011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.03730461720527471</v>
+        <v>0.0318317315728561</v>
       </c>
       <c r="C15">
-        <v>-0.01105748584770765</v>
+        <v>-0.01709960149572281</v>
       </c>
       <c r="D15">
-        <v>-0.004623228355994399</v>
+        <v>-0.01032288167303395</v>
       </c>
       <c r="E15">
-        <v>-0.02379762692205078</v>
+        <v>-0.01509367149613242</v>
       </c>
       <c r="F15">
-        <v>-0.0006320117008585625</v>
+        <v>-0.02106056358094625</v>
       </c>
       <c r="G15">
-        <v>0.006543867508394821</v>
+        <v>-0.004053147715400548</v>
       </c>
       <c r="H15">
-        <v>0.07687235382032981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04648111361104248</v>
+      </c>
+      <c r="I15">
+        <v>-0.008637316365465815</v>
+      </c>
+      <c r="J15">
+        <v>-0.04281140494990991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.08522244932849728</v>
+        <v>0.0987443645855465</v>
       </c>
       <c r="C16">
-        <v>0.06206903932610426</v>
+        <v>-0.0627518457798478</v>
       </c>
       <c r="D16">
-        <v>-0.02598259991439683</v>
+        <v>0.03972101341198523</v>
       </c>
       <c r="E16">
-        <v>-0.01863385851408484</v>
+        <v>-0.04669780171837667</v>
       </c>
       <c r="F16">
-        <v>-2.947837934808842e-05</v>
+        <v>0.06404499920633579</v>
       </c>
       <c r="G16">
-        <v>0.1295191739671539</v>
+        <v>-0.0200200399107626</v>
       </c>
       <c r="H16">
-        <v>-0.03557275855630453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.09682902659357109</v>
+      </c>
+      <c r="I16">
+        <v>-0.04051278567253533</v>
+      </c>
+      <c r="J16">
+        <v>-0.01964348246159704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.05774528721904078</v>
+        <v>0.05812912856337001</v>
       </c>
       <c r="C20">
-        <v>0.01485768424830598</v>
+        <v>-0.02989314329105551</v>
       </c>
       <c r="D20">
-        <v>0.01208195926880454</v>
+        <v>0.03215069300684809</v>
       </c>
       <c r="E20">
-        <v>-0.01830289305724853</v>
+        <v>-0.00603278364413853</v>
       </c>
       <c r="F20">
-        <v>0.03042728384774821</v>
+        <v>-0.006220545543628862</v>
       </c>
       <c r="G20">
-        <v>0.1091490145769684</v>
+        <v>-0.007091625742579387</v>
       </c>
       <c r="H20">
-        <v>0.02399211746495786</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.04324859007492451</v>
+      </c>
+      <c r="I20">
+        <v>-0.02826822050273252</v>
+      </c>
+      <c r="J20">
+        <v>-0.06755678630858941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.02630135395433102</v>
+        <v>0.02132565608791626</v>
       </c>
       <c r="C21">
-        <v>0.03218592465225815</v>
+        <v>-0.002776364567700391</v>
       </c>
       <c r="D21">
-        <v>0.0005148959118294179</v>
+        <v>0.006246608121308636</v>
       </c>
       <c r="E21">
-        <v>0.003319419838448627</v>
+        <v>0.035588579849097</v>
       </c>
       <c r="F21">
-        <v>0.04054310244918363</v>
+        <v>-0.002402631074211702</v>
       </c>
       <c r="G21">
-        <v>-0.1562093735034674</v>
+        <v>-0.03180142627788086</v>
       </c>
       <c r="H21">
-        <v>0.09055605561212628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.01599098844201104</v>
+      </c>
+      <c r="I21">
+        <v>-0.03987961304934634</v>
+      </c>
+      <c r="J21">
+        <v>-0.05353319075041205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.04075709459464575</v>
+        <v>0.03945532387502587</v>
       </c>
       <c r="C22">
-        <v>0.0125570269961475</v>
+        <v>0.02836926749129124</v>
       </c>
       <c r="D22">
-        <v>-0.6214236069553443</v>
+        <v>-0.006075706636063973</v>
       </c>
       <c r="E22">
-        <v>0.1208248955743601</v>
+        <v>-0.1256344604704286</v>
       </c>
       <c r="F22">
-        <v>-0.06260122551238415</v>
+        <v>-0.5817786322585192</v>
       </c>
       <c r="G22">
-        <v>-0.2129470395525533</v>
+        <v>0.04985962583758519</v>
       </c>
       <c r="H22">
-        <v>-0.06313861788290842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.2937941018481343</v>
+      </c>
+      <c r="I22">
+        <v>0.1113465495729602</v>
+      </c>
+      <c r="J22">
+        <v>0.08355483339599382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.04118024801251168</v>
+        <v>0.03963692830961388</v>
       </c>
       <c r="C23">
-        <v>0.01338119581357583</v>
+        <v>0.02808945789688699</v>
       </c>
       <c r="D23">
-        <v>-0.6210819620739237</v>
+        <v>-0.00565652434591838</v>
       </c>
       <c r="E23">
-        <v>0.1191445985594247</v>
+        <v>-0.1273167282319747</v>
       </c>
       <c r="F23">
-        <v>-0.06300051101697791</v>
+        <v>-0.5833942205829575</v>
       </c>
       <c r="G23">
-        <v>-0.2148496431966821</v>
+        <v>0.04928523937964044</v>
       </c>
       <c r="H23">
-        <v>-0.06298591423299352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.2953315791982913</v>
+      </c>
+      <c r="I23">
+        <v>0.1094789417024809</v>
+      </c>
+      <c r="J23">
+        <v>0.08227922786231959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.08440158149805642</v>
+        <v>0.09993406656851364</v>
       </c>
       <c r="C24">
-        <v>0.044422135604063</v>
+        <v>-0.05939654747911816</v>
       </c>
       <c r="D24">
-        <v>-0.03014446803328153</v>
+        <v>0.0342663072610522</v>
       </c>
       <c r="E24">
-        <v>-0.03214285780582095</v>
+        <v>-0.03511731684497035</v>
       </c>
       <c r="F24">
-        <v>0.02441718851781378</v>
+        <v>0.06346546267776555</v>
       </c>
       <c r="G24">
-        <v>0.1141214205101224</v>
+        <v>-0.005945994851696368</v>
       </c>
       <c r="H24">
-        <v>-0.02485765918721072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.1010417415685543</v>
+      </c>
+      <c r="I24">
+        <v>-0.04223954431227053</v>
+      </c>
+      <c r="J24">
+        <v>-0.008529389046075949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07779550806080837</v>
+        <v>0.1019290261165347</v>
       </c>
       <c r="C25">
-        <v>0.01724794250428485</v>
+        <v>-0.04748379070484544</v>
       </c>
       <c r="D25">
-        <v>-0.01710096378716162</v>
+        <v>0.02921769504287209</v>
       </c>
       <c r="E25">
-        <v>-0.02063661087729047</v>
+        <v>-0.04036484802471595</v>
       </c>
       <c r="F25">
-        <v>0.04417058240530915</v>
+        <v>0.09040882158249811</v>
       </c>
       <c r="G25">
-        <v>0.1109124097000369</v>
+        <v>-0.01512055248770252</v>
       </c>
       <c r="H25">
-        <v>-0.02992705388372232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.09602091007199223</v>
+      </c>
+      <c r="I25">
+        <v>-0.04585204478142252</v>
+      </c>
+      <c r="J25">
+        <v>-0.03062786415808195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.05077422289438662</v>
+        <v>0.04800020993031513</v>
       </c>
       <c r="C26">
-        <v>0.02401339738969601</v>
+        <v>-0.0007589162959447033</v>
       </c>
       <c r="D26">
-        <v>-0.007828878702330509</v>
+        <v>0.02651451356980013</v>
       </c>
       <c r="E26">
-        <v>-0.04283383454829424</v>
+        <v>-0.009128635099980237</v>
       </c>
       <c r="F26">
-        <v>-0.02266781086380057</v>
+        <v>0.008079394671672529</v>
       </c>
       <c r="G26">
-        <v>0.07873863616790389</v>
+        <v>-0.03414048908212898</v>
       </c>
       <c r="H26">
-        <v>0.1073263059694189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.06002868146400391</v>
+      </c>
+      <c r="I26">
+        <v>-0.02155990952696758</v>
+      </c>
+      <c r="J26">
+        <v>-0.066203730629879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.06521506425670566</v>
+        <v>0.06241808724827694</v>
       </c>
       <c r="C28">
-        <v>-0.3089491469316621</v>
+        <v>0.3088222982695077</v>
       </c>
       <c r="D28">
-        <v>0.009775329741275297</v>
+        <v>-0.07217686512680552</v>
       </c>
       <c r="E28">
-        <v>-0.01699541681357852</v>
+        <v>-0.03469896100061411</v>
       </c>
       <c r="F28">
-        <v>-0.005445595392169779</v>
+        <v>0.05354531180700606</v>
       </c>
       <c r="G28">
-        <v>-0.002252927560530575</v>
+        <v>-0.02907414386836588</v>
       </c>
       <c r="H28">
-        <v>-0.0576504560332041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.04476105109904669</v>
+      </c>
+      <c r="I28">
+        <v>-0.04275689439932447</v>
+      </c>
+      <c r="J28">
+        <v>-0.009401727870713623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.05795888557561318</v>
+        <v>0.03763394575586904</v>
       </c>
       <c r="C29">
-        <v>-0.0005471513590829732</v>
+        <v>-0.005180689929723601</v>
       </c>
       <c r="D29">
-        <v>-0.04026027861645676</v>
+        <v>-0.006098386541814702</v>
       </c>
       <c r="E29">
-        <v>-0.02841958440804905</v>
+        <v>-0.009114927348379874</v>
       </c>
       <c r="F29">
-        <v>-0.01023635070765121</v>
+        <v>0.02180041839151027</v>
       </c>
       <c r="G29">
-        <v>0.04639104110481277</v>
+        <v>0.008665386583543483</v>
       </c>
       <c r="H29">
-        <v>0.1070824422341626</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.06124611144621319</v>
+      </c>
+      <c r="I29">
+        <v>-0.01338051139572319</v>
+      </c>
+      <c r="J29">
+        <v>-0.1183403280117827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1131343463603232</v>
+        <v>0.1215314601581151</v>
       </c>
       <c r="C30">
-        <v>-0.009635470269603149</v>
+        <v>-0.05892898157506973</v>
       </c>
       <c r="D30">
-        <v>-0.158192403238397</v>
+        <v>-0.009369917690256037</v>
       </c>
       <c r="E30">
-        <v>-0.03759035074041349</v>
+        <v>-0.02869863600622736</v>
       </c>
       <c r="F30">
-        <v>0.1935403923540184</v>
+        <v>0.05029750844572679</v>
       </c>
       <c r="G30">
-        <v>0.1717879966740931</v>
+        <v>-0.08576764190710311</v>
       </c>
       <c r="H30">
-        <v>-0.03290351056963857</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1483201000266325</v>
+      </c>
+      <c r="I30">
+        <v>-0.04640079106202596</v>
+      </c>
+      <c r="J30">
+        <v>0.128782072021487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05535128084022742</v>
+        <v>0.03994048144769929</v>
       </c>
       <c r="C31">
-        <v>0.03044733269055106</v>
+        <v>-0.02369960806125591</v>
       </c>
       <c r="D31">
-        <v>-0.02251576421045367</v>
+        <v>0.02080471803176627</v>
       </c>
       <c r="E31">
-        <v>0.009778319099665802</v>
+        <v>-0.0222109024469</v>
       </c>
       <c r="F31">
-        <v>-0.002623293343442922</v>
+        <v>-0.007140340961411426</v>
       </c>
       <c r="G31">
-        <v>0.02878599693665519</v>
+        <v>-0.001367798234548541</v>
       </c>
       <c r="H31">
-        <v>0.04134127029281136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.01009813556168292</v>
+      </c>
+      <c r="I31">
+        <v>-0.02755174835336849</v>
+      </c>
+      <c r="J31">
+        <v>-0.06487084108916286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03341317622164859</v>
+        <v>0.05660404497571393</v>
       </c>
       <c r="C32">
-        <v>-0.01590631664657991</v>
+        <v>-0.004071684546366762</v>
       </c>
       <c r="D32">
-        <v>-0.06504846978697758</v>
+        <v>0.02360843125991518</v>
       </c>
       <c r="E32">
-        <v>0.004869345945601466</v>
+        <v>2.345140653345864e-05</v>
       </c>
       <c r="F32">
-        <v>-0.09972292870780079</v>
+        <v>0.04809148702848809</v>
       </c>
       <c r="G32">
-        <v>0.08210625795410327</v>
+        <v>-0.06321464344479848</v>
       </c>
       <c r="H32">
-        <v>0.03152071701598037</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03971470007536937</v>
+      </c>
+      <c r="I32">
+        <v>0.001978966824675467</v>
+      </c>
+      <c r="J32">
+        <v>-0.02090231742347132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.112370777347557</v>
+        <v>0.1120560644004812</v>
       </c>
       <c r="C33">
-        <v>0.01258663422550064</v>
+        <v>-0.04767828353476534</v>
       </c>
       <c r="D33">
-        <v>-0.0215672599293133</v>
+        <v>0.003211634672553517</v>
       </c>
       <c r="E33">
-        <v>0.02153848267754339</v>
+        <v>-0.06970410028651622</v>
       </c>
       <c r="F33">
-        <v>0.01287958465193488</v>
+        <v>0.05212350215778467</v>
       </c>
       <c r="G33">
-        <v>0.0758569951287149</v>
+        <v>-0.0163556902057062</v>
       </c>
       <c r="H33">
-        <v>0.06904875619995186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.07633477580972733</v>
+      </c>
+      <c r="I33">
+        <v>-0.00874341302346664</v>
+      </c>
+      <c r="J33">
+        <v>-0.02603235222557924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06905231416679149</v>
+        <v>0.08462460641508535</v>
       </c>
       <c r="C34">
-        <v>0.03632199357176098</v>
+        <v>-0.04247725546968486</v>
       </c>
       <c r="D34">
-        <v>-0.003941791068617136</v>
+        <v>0.03042304260807765</v>
       </c>
       <c r="E34">
-        <v>-0.0007106132791614069</v>
+        <v>-0.03364539092498522</v>
       </c>
       <c r="F34">
-        <v>-0.007806987005192574</v>
+        <v>0.06860265174586427</v>
       </c>
       <c r="G34">
-        <v>0.09927443903475019</v>
+        <v>-0.009629007653490449</v>
       </c>
       <c r="H34">
-        <v>-0.008240409973511702</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.09856516354674449</v>
+      </c>
+      <c r="I34">
+        <v>-0.01765906776528518</v>
+      </c>
+      <c r="J34">
+        <v>-0.02093934227998905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.04144659140267276</v>
+        <v>0.02077648918892171</v>
       </c>
       <c r="C35">
-        <v>0.005666406329647608</v>
+        <v>-0.008529942052332403</v>
       </c>
       <c r="D35">
-        <v>0.02561507848986461</v>
+        <v>-0.009186579869745972</v>
       </c>
       <c r="E35">
-        <v>0.006423608684739209</v>
+        <v>-0.005153535850601679</v>
       </c>
       <c r="F35">
-        <v>0.04180212934349876</v>
+        <v>0.01908656931010663</v>
       </c>
       <c r="G35">
-        <v>0.03620582265532178</v>
+        <v>-0.003432128222100399</v>
       </c>
       <c r="H35">
-        <v>-0.01086040571532482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.03922307555461541</v>
+      </c>
+      <c r="I35">
+        <v>-0.005780308208184389</v>
+      </c>
+      <c r="J35">
+        <v>-0.07274548273274339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.03980680840760058</v>
+        <v>0.03080397663672293</v>
       </c>
       <c r="C36">
-        <v>-0.0001932981214918743</v>
+        <v>-0.01292331407955502</v>
       </c>
       <c r="D36">
-        <v>-0.01875715113554547</v>
+        <v>-0.006075085664039873</v>
       </c>
       <c r="E36">
-        <v>-0.02367175049685687</v>
+        <v>-0.007777722198883615</v>
       </c>
       <c r="F36">
-        <v>0.03168780496885341</v>
+        <v>-0.008773159856865101</v>
       </c>
       <c r="G36">
-        <v>0.06693346122772845</v>
+        <v>-0.02723626644828959</v>
       </c>
       <c r="H36">
-        <v>0.06251393369496971</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.03010534733240926</v>
+      </c>
+      <c r="I36">
+        <v>-0.03408226488034394</v>
+      </c>
+      <c r="J36">
+        <v>-0.03091543521407062</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.0516757137643257</v>
+        <v>0.01599744649604408</v>
       </c>
       <c r="C38">
-        <v>0.02279135084855908</v>
+        <v>-0.0060271525599578</v>
       </c>
       <c r="D38">
-        <v>-0.004052198017706284</v>
+        <v>0.00663512232413381</v>
       </c>
       <c r="E38">
-        <v>-0.007525470276500231</v>
+        <v>-0.009383153663694091</v>
       </c>
       <c r="F38">
-        <v>-0.02406281681429324</v>
+        <v>-0.01998671560703966</v>
       </c>
       <c r="G38">
-        <v>0.06441060579063239</v>
+        <v>0.0247448401796448</v>
       </c>
       <c r="H38">
-        <v>0.01434638581452365</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01006215010327582</v>
+      </c>
+      <c r="I38">
+        <v>0.03553007937158788</v>
+      </c>
+      <c r="J38">
+        <v>0.008395641614959046</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.1060594632940977</v>
+        <v>0.1542878271451524</v>
       </c>
       <c r="C39">
-        <v>0.0443798193024222</v>
+        <v>-0.1066352856644937</v>
       </c>
       <c r="D39">
-        <v>-0.06063776090975627</v>
+        <v>0.03226843017253249</v>
       </c>
       <c r="E39">
-        <v>-0.01381968818286432</v>
+        <v>-0.0530273005243356</v>
       </c>
       <c r="F39">
-        <v>-0.002978066323382203</v>
+        <v>0.1655351043792458</v>
       </c>
       <c r="G39">
-        <v>0.1628146092808978</v>
+        <v>-0.03463089734797353</v>
       </c>
       <c r="H39">
-        <v>-0.09601348316018478</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1629309586245389</v>
+      </c>
+      <c r="I39">
+        <v>-0.01714857187719204</v>
+      </c>
+      <c r="J39">
+        <v>-0.06368097172730185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.04486919540864315</v>
+        <v>0.01766115314954315</v>
       </c>
       <c r="C40">
-        <v>0.01500272795186767</v>
+        <v>-0.00561648229095357</v>
       </c>
       <c r="D40">
-        <v>-0.04791080715063631</v>
+        <v>0.01416529477567965</v>
       </c>
       <c r="E40">
-        <v>0.02583841330569284</v>
+        <v>0.003394658832918948</v>
       </c>
       <c r="F40">
-        <v>0.08345290811531943</v>
+        <v>-0.04418679860840843</v>
       </c>
       <c r="G40">
-        <v>0.2903419339916768</v>
+        <v>-0.0212602883823655</v>
       </c>
       <c r="H40">
-        <v>-0.08460263578059517</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.09608943000270864</v>
+      </c>
+      <c r="I40">
+        <v>-0.05179179295128242</v>
+      </c>
+      <c r="J40">
+        <v>0.002580700808694911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.0489541365205244</v>
+        <v>0.02654507876338638</v>
       </c>
       <c r="C41">
-        <v>0.03388472185134943</v>
+        <v>0.005211842770329323</v>
       </c>
       <c r="D41">
-        <v>0.02668835663858209</v>
+        <v>0.03005777204470243</v>
       </c>
       <c r="E41">
-        <v>-0.00224487871253352</v>
+        <v>-0.006271136201506717</v>
       </c>
       <c r="F41">
-        <v>-0.02935907966903646</v>
+        <v>0.0107778515133022</v>
       </c>
       <c r="G41">
-        <v>0.05529546053485184</v>
+        <v>0.005023526219494713</v>
       </c>
       <c r="H41">
-        <v>0.008656758085029713</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.006622619382207499</v>
+      </c>
+      <c r="I41">
+        <v>-0.006535945783078079</v>
+      </c>
+      <c r="J41">
+        <v>-0.05593079067893762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.07353811524371953</v>
+        <v>0.03878631439481117</v>
       </c>
       <c r="C43">
-        <v>0.02813167182146009</v>
+        <v>0.0002417403108208715</v>
       </c>
       <c r="D43">
-        <v>-0.03002343272671708</v>
+        <v>0.03796545357844777</v>
       </c>
       <c r="E43">
-        <v>-0.008936619513670094</v>
+        <v>-0.03233164519739196</v>
       </c>
       <c r="F43">
-        <v>-0.03809608112998535</v>
+        <v>-0.001591227107266138</v>
       </c>
       <c r="G43">
-        <v>0.01646684705112015</v>
+        <v>-7.125734519907665e-05</v>
       </c>
       <c r="H43">
-        <v>0.004666441392710637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.007191423759773499</v>
+      </c>
+      <c r="I43">
+        <v>-0.007977775452577928</v>
+      </c>
+      <c r="J43">
+        <v>-0.06796196594722737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.08225056858612799</v>
+        <v>0.1248052056951546</v>
       </c>
       <c r="C44">
-        <v>0.00323102936484969</v>
+        <v>-0.06248470776021155</v>
       </c>
       <c r="D44">
-        <v>-0.06031826486734988</v>
+        <v>-0.006573112786898054</v>
       </c>
       <c r="E44">
-        <v>-0.111500547311126</v>
+        <v>-0.03142750872413413</v>
       </c>
       <c r="F44">
-        <v>-0.02221448965341171</v>
+        <v>0.01317210137249853</v>
       </c>
       <c r="G44">
-        <v>0.1023546347266531</v>
+        <v>0.05345963927930077</v>
       </c>
       <c r="H44">
-        <v>0.0205695477992031</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.2318578363172621</v>
+      </c>
+      <c r="I44">
+        <v>-0.06572870389760109</v>
+      </c>
+      <c r="J44">
+        <v>0.1236764557558735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.05105687549638785</v>
+        <v>0.02336202624655696</v>
       </c>
       <c r="C46">
-        <v>0.04057367558693093</v>
+        <v>0.001393764197813473</v>
       </c>
       <c r="D46">
-        <v>-0.04837276156253534</v>
+        <v>0.02067523806926102</v>
       </c>
       <c r="E46">
-        <v>-0.0001904721551869423</v>
+        <v>-0.02856600515567799</v>
       </c>
       <c r="F46">
-        <v>-0.01162361338046381</v>
+        <v>-0.02466067289026636</v>
       </c>
       <c r="G46">
-        <v>0.01551690742665949</v>
+        <v>0.01234696746937049</v>
       </c>
       <c r="H46">
-        <v>0.1015740553513027</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04154213860007686</v>
+      </c>
+      <c r="I46">
+        <v>0.007399056558927052</v>
+      </c>
+      <c r="J46">
+        <v>-0.1102298094320849</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.05186537529589079</v>
+        <v>0.04636945988131648</v>
       </c>
       <c r="C47">
-        <v>-0.004427623979954723</v>
+        <v>0.001259120976938684</v>
       </c>
       <c r="D47">
-        <v>-0.0474480640008944</v>
+        <v>0.01391883702493477</v>
       </c>
       <c r="E47">
-        <v>0.0239133431520606</v>
+        <v>-0.01127683859996692</v>
       </c>
       <c r="F47">
-        <v>0.04393226116763142</v>
+        <v>-0.007589326802674202</v>
       </c>
       <c r="G47">
-        <v>0.02227496767239489</v>
+        <v>-0.03150865361557469</v>
       </c>
       <c r="H47">
-        <v>0.04853028791944804</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.04656452550349746</v>
+      </c>
+      <c r="I47">
+        <v>-0.04459415716140342</v>
+      </c>
+      <c r="J47">
+        <v>-0.0499413615442624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.04274503263503941</v>
+        <v>0.04382953073958785</v>
       </c>
       <c r="C48">
-        <v>0.002540710019522078</v>
+        <v>-0.01470984366134023</v>
       </c>
       <c r="D48">
-        <v>-0.02794822783419471</v>
+        <v>-0.01132702117422158</v>
       </c>
       <c r="E48">
-        <v>0.04062579699072578</v>
+        <v>-0.01226579243188263</v>
       </c>
       <c r="F48">
-        <v>0.04302205541630627</v>
+        <v>0.006310833003839357</v>
       </c>
       <c r="G48">
-        <v>0.04495450605725869</v>
+        <v>-0.03757277566067603</v>
       </c>
       <c r="H48">
-        <v>0.02464498902730342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05349311269093304</v>
+      </c>
+      <c r="I48">
+        <v>-0.02380375897394978</v>
+      </c>
+      <c r="J48">
+        <v>-0.08038399799599191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.2426478701197105</v>
+        <v>0.2267186212527926</v>
       </c>
       <c r="C49">
-        <v>0.06350083321907979</v>
+        <v>0.009412551325462419</v>
       </c>
       <c r="D49">
-        <v>0.1102757773273955</v>
+        <v>0.06326926390702999</v>
       </c>
       <c r="E49">
-        <v>0.0001569546368141292</v>
+        <v>0.03293114410874041</v>
       </c>
       <c r="F49">
-        <v>-0.01818167128991712</v>
+        <v>0.02817599699288976</v>
       </c>
       <c r="G49">
-        <v>-0.1980478178440672</v>
+        <v>0.1146310705671876</v>
       </c>
       <c r="H49">
-        <v>-0.09417735332341261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.09624292397773022</v>
+      </c>
+      <c r="I49">
+        <v>0.08445952291041114</v>
+      </c>
+      <c r="J49">
+        <v>0.2562804032205728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05647174062403884</v>
+        <v>0.04617568429475019</v>
       </c>
       <c r="C50">
-        <v>0.01783797074468238</v>
+        <v>-0.02046964240354207</v>
       </c>
       <c r="D50">
-        <v>-0.02486610093183124</v>
+        <v>0.02793595447479716</v>
       </c>
       <c r="E50">
-        <v>0.01493702844116866</v>
+        <v>-0.01453276918964623</v>
       </c>
       <c r="F50">
-        <v>-0.01467390653352626</v>
+        <v>0.002963917890259605</v>
       </c>
       <c r="G50">
-        <v>0.02328971105224744</v>
+        <v>-0.005023643743135831</v>
       </c>
       <c r="H50">
-        <v>0.07032717998934834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03072108656116007</v>
+      </c>
+      <c r="I50">
+        <v>-0.009672321540645202</v>
+      </c>
+      <c r="J50">
+        <v>-0.06137546585668478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.03209578895475369</v>
+        <v>0.01356189090527867</v>
       </c>
       <c r="C51">
-        <v>0.01366235355953148</v>
+        <v>0.008638886796000963</v>
       </c>
       <c r="D51">
-        <v>-0.01462233800862817</v>
+        <v>0.001957912955358592</v>
       </c>
       <c r="E51">
-        <v>-0.02222371326780629</v>
+        <v>-0.01500585955550087</v>
       </c>
       <c r="F51">
-        <v>-0.03742545418555419</v>
+        <v>-0.004844527643857764</v>
       </c>
       <c r="G51">
-        <v>-0.004876272825874144</v>
+        <v>0.02573678121859699</v>
       </c>
       <c r="H51">
-        <v>-0.03454480558473585</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.00713341581337406</v>
+      </c>
+      <c r="I51">
+        <v>-0.005446752703877086</v>
+      </c>
+      <c r="J51">
+        <v>0.016008266913472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1077535942674944</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.05987812411168165</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.03097452644288597</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02405468542280419</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01311199562757233</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.01504445293693587</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.02565385575776039</v>
+      </c>
+      <c r="I52">
+        <v>0.05863720247663105</v>
+      </c>
+      <c r="J52">
+        <v>-0.07476709301103981</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1644689369658253</v>
+        <v>0.1560391304123657</v>
       </c>
       <c r="C53">
-        <v>0.0142017089356684</v>
+        <v>0.000611818948186207</v>
       </c>
       <c r="D53">
-        <v>0.0001138031326112016</v>
+        <v>-0.007674428256182869</v>
       </c>
       <c r="E53">
-        <v>0.04998329658874488</v>
+        <v>0.02430569636212796</v>
       </c>
       <c r="F53">
-        <v>-0.1658648298133069</v>
+        <v>-0.05013138951552241</v>
       </c>
       <c r="G53">
-        <v>-0.0093690304737331</v>
+        <v>0.06282141322754189</v>
       </c>
       <c r="H53">
-        <v>0.04000647279212992</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.09465955379772167</v>
+      </c>
+      <c r="I53">
+        <v>0.1476547970816027</v>
+      </c>
+      <c r="J53">
+        <v>-0.1000462444966343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.05296676359851919</v>
+        <v>0.05245539192621838</v>
       </c>
       <c r="C54">
-        <v>0.004341609591836292</v>
+        <v>-0.004849160061308178</v>
       </c>
       <c r="D54">
-        <v>-0.02640880869333254</v>
+        <v>0.009331446698802388</v>
       </c>
       <c r="E54">
-        <v>-0.005287167866644366</v>
+        <v>-0.01621207026195469</v>
       </c>
       <c r="F54">
-        <v>0.02660643204552099</v>
+        <v>-0.01846509719328369</v>
       </c>
       <c r="G54">
-        <v>0.0417926297343368</v>
+        <v>-0.02411741276030424</v>
       </c>
       <c r="H54">
-        <v>0.08322626392887496</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.05894129249035527</v>
+      </c>
+      <c r="I54">
+        <v>-0.06670570822664723</v>
+      </c>
+      <c r="J54">
+        <v>-0.1119475809346965</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1018671535198882</v>
+        <v>0.09152499168178399</v>
       </c>
       <c r="C55">
-        <v>0.01756142720149404</v>
+        <v>-0.01991997285198816</v>
       </c>
       <c r="D55">
-        <v>-0.01106914881403419</v>
+        <v>-0.01990721702521453</v>
       </c>
       <c r="E55">
-        <v>0.02065099822183383</v>
+        <v>-0.02739349338345686</v>
       </c>
       <c r="F55">
-        <v>-0.07525109334733915</v>
+        <v>0.002156516611251786</v>
       </c>
       <c r="G55">
-        <v>0.03803697015428965</v>
+        <v>0.01379393409189738</v>
       </c>
       <c r="H55">
-        <v>0.07765782771970543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.02873985249721004</v>
+      </c>
+      <c r="I55">
+        <v>0.05199723260040328</v>
+      </c>
+      <c r="J55">
+        <v>-0.09236598406869441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1664839065057749</v>
+        <v>0.1607850178638704</v>
       </c>
       <c r="C56">
-        <v>0.01195073483257963</v>
+        <v>-0.01130316461591064</v>
       </c>
       <c r="D56">
-        <v>0.007297315911467593</v>
+        <v>0.007023448839745579</v>
       </c>
       <c r="E56">
-        <v>0.08435215148435299</v>
+        <v>-0.01034943921664558</v>
       </c>
       <c r="F56">
-        <v>-0.1562808223593369</v>
+        <v>-0.006175409171274717</v>
       </c>
       <c r="G56">
-        <v>0.00599800377241394</v>
+        <v>0.05150755031886693</v>
       </c>
       <c r="H56">
-        <v>0.04669924628455663</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.01885971519525991</v>
+      </c>
+      <c r="I56">
+        <v>0.1165849258825753</v>
+      </c>
+      <c r="J56">
+        <v>-0.09766930328710717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01828027855357155</v>
+        <v>0.0351468728016758</v>
       </c>
       <c r="C58">
-        <v>0.05981700110159564</v>
+        <v>-0.02299676941103556</v>
       </c>
       <c r="D58">
-        <v>-0.1006797835875953</v>
+        <v>0.01372728911283722</v>
       </c>
       <c r="E58">
-        <v>0.0009739012744591013</v>
+        <v>-0.002082089289862657</v>
       </c>
       <c r="F58">
-        <v>0.5362796771564823</v>
+        <v>-0.0596163611437106</v>
       </c>
       <c r="G58">
-        <v>0.06833009660164804</v>
+        <v>-0.03038971309616691</v>
       </c>
       <c r="H58">
-        <v>-0.247336197008774</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1001162331719559</v>
+      </c>
+      <c r="I58">
+        <v>0.04727943042927098</v>
+      </c>
+      <c r="J58">
+        <v>-0.09184524599348839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1545058866771575</v>
+        <v>0.1376293033788081</v>
       </c>
       <c r="C59">
-        <v>-0.3670563932584927</v>
+        <v>0.3032876323589864</v>
       </c>
       <c r="D59">
-        <v>0.02526709862808494</v>
+        <v>-0.06719880856952598</v>
       </c>
       <c r="E59">
-        <v>-0.0468282461084011</v>
+        <v>-0.04310539198605592</v>
       </c>
       <c r="F59">
-        <v>-0.05099298654855307</v>
+        <v>0.04236171688549414</v>
       </c>
       <c r="G59">
-        <v>0.001362068986190772</v>
+        <v>0.02937176732558237</v>
       </c>
       <c r="H59">
-        <v>-0.03864947075381149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.04216983609005346</v>
+      </c>
+      <c r="I59">
+        <v>-0.07919461769636853</v>
+      </c>
+      <c r="J59">
+        <v>-0.01159335235583642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.2818384250808941</v>
+        <v>0.2804688622365915</v>
       </c>
       <c r="C60">
-        <v>0.04803180844254728</v>
+        <v>-0.05725916548844755</v>
       </c>
       <c r="D60">
-        <v>0.06843991923510431</v>
+        <v>0.001389712595133998</v>
       </c>
       <c r="E60">
-        <v>-0.04610930740803749</v>
+        <v>0.08880093862803297</v>
       </c>
       <c r="F60">
-        <v>-0.0006272487868197652</v>
+        <v>0.03115806512077271</v>
       </c>
       <c r="G60">
-        <v>-0.171360242292477</v>
+        <v>0.2010418971664998</v>
       </c>
       <c r="H60">
-        <v>-0.07659926428175384</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.10924408157596</v>
+      </c>
+      <c r="I60">
+        <v>0.02708719671962306</v>
+      </c>
+      <c r="J60">
+        <v>0.477992137100884</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.09343437842931594</v>
+        <v>0.1175323547485296</v>
       </c>
       <c r="C61">
-        <v>0.02151826721911853</v>
+        <v>-0.06400411645356152</v>
       </c>
       <c r="D61">
-        <v>-0.02460513854814579</v>
+        <v>0.001879679343606124</v>
       </c>
       <c r="E61">
-        <v>-0.01312480679259359</v>
+        <v>-0.03944278027295239</v>
       </c>
       <c r="F61">
-        <v>-0.01805475910989923</v>
+        <v>0.1126078185089527</v>
       </c>
       <c r="G61">
-        <v>0.08634359602724612</v>
+        <v>-0.02309535686403198</v>
       </c>
       <c r="H61">
-        <v>-0.02585048420022046</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1426353018123154</v>
+      </c>
+      <c r="I61">
+        <v>-0.07967698172844798</v>
+      </c>
+      <c r="J61">
+        <v>-0.0793765141824587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.141075869940691</v>
+        <v>0.1613699080809217</v>
       </c>
       <c r="C62">
-        <v>0.04068209557558157</v>
+        <v>-0.02691535656017579</v>
       </c>
       <c r="D62">
-        <v>0.05724982645240956</v>
+        <v>0.0008483106992708475</v>
       </c>
       <c r="E62">
-        <v>0.09752109525470559</v>
+        <v>0.005668506602240826</v>
       </c>
       <c r="F62">
-        <v>-0.1607113029335638</v>
+        <v>-0.01016737938336435</v>
       </c>
       <c r="G62">
-        <v>-0.002133602057823815</v>
+        <v>0.01595068066215672</v>
       </c>
       <c r="H62">
-        <v>0.06062460949381646</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.05244336987215034</v>
+      </c>
+      <c r="I62">
+        <v>0.113414105523387</v>
+      </c>
+      <c r="J62">
+        <v>-0.09058274224621106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04493072482888848</v>
+        <v>0.05278906893165231</v>
       </c>
       <c r="C63">
-        <v>0.01649473303035299</v>
+        <v>-0.0237564280793597</v>
       </c>
       <c r="D63">
-        <v>0.0004838542829169182</v>
+        <v>-0.004805205575341568</v>
       </c>
       <c r="E63">
-        <v>0.01158139498683745</v>
+        <v>-0.02974454657797949</v>
       </c>
       <c r="F63">
-        <v>0.01932400145736894</v>
+        <v>0.005891832534953685</v>
       </c>
       <c r="G63">
-        <v>0.03101454056579092</v>
+        <v>-0.05934433497560044</v>
       </c>
       <c r="H63">
-        <v>0.1101077377371629</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.03433974330715257</v>
+      </c>
+      <c r="I63">
+        <v>-0.03439824581889875</v>
+      </c>
+      <c r="J63">
+        <v>-0.09624962151306386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.1108734275839055</v>
+        <v>0.1040137183071469</v>
       </c>
       <c r="C64">
-        <v>0.01134007506400415</v>
+        <v>-0.02551597042887988</v>
       </c>
       <c r="D64">
-        <v>-0.01665657288816116</v>
+        <v>0.01148081389115379</v>
       </c>
       <c r="E64">
-        <v>-0.03324147525461172</v>
+        <v>-0.009345949933490158</v>
       </c>
       <c r="F64">
-        <v>-0.007620066329801669</v>
+        <v>0.006025936359920485</v>
       </c>
       <c r="G64">
-        <v>0.02829653984988358</v>
+        <v>0.0397329912036942</v>
       </c>
       <c r="H64">
-        <v>0.006052081336028949</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.06039891517266683</v>
+      </c>
+      <c r="I64">
+        <v>-0.01892593744704256</v>
+      </c>
+      <c r="J64">
+        <v>-0.02016143888770852</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.1072804900080177</v>
+        <v>0.1147590738296601</v>
       </c>
       <c r="C65">
-        <v>0.02248025138992506</v>
+        <v>-0.0009647488052984202</v>
       </c>
       <c r="D65">
-        <v>0.004588046586632825</v>
+        <v>-0.01030485874396807</v>
       </c>
       <c r="E65">
-        <v>-0.03309802081915713</v>
+        <v>0.01693277905813794</v>
       </c>
       <c r="F65">
-        <v>0.4459280331481491</v>
+        <v>0.01523365968272813</v>
       </c>
       <c r="G65">
-        <v>-0.2403564565646077</v>
+        <v>-0.07631971349194266</v>
       </c>
       <c r="H65">
-        <v>0.5212632954757956</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.02610170336151514</v>
+      </c>
+      <c r="I65">
+        <v>-0.04605897997321677</v>
+      </c>
+      <c r="J65">
+        <v>0.1878727637515494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1516870207038779</v>
+        <v>0.1875609272938999</v>
       </c>
       <c r="C66">
-        <v>0.05642556054422574</v>
+        <v>-0.1129094859322642</v>
       </c>
       <c r="D66">
-        <v>-0.01417928009894725</v>
+        <v>0.04658761444155873</v>
       </c>
       <c r="E66">
-        <v>-0.04534606057297143</v>
+        <v>-0.06286808517904093</v>
       </c>
       <c r="F66">
-        <v>-0.0689724792635359</v>
+        <v>0.1646337876080809</v>
       </c>
       <c r="G66">
-        <v>0.2784904076794082</v>
+        <v>-0.02544208025838961</v>
       </c>
       <c r="H66">
-        <v>-0.1722620157752959</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1656154982855277</v>
+      </c>
+      <c r="I66">
+        <v>-0.02548121574378151</v>
+      </c>
+      <c r="J66">
+        <v>-0.02873663723428562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.1069900853400147</v>
+        <v>0.08581016644750668</v>
       </c>
       <c r="C67">
-        <v>0.0422045304124106</v>
+        <v>-0.0278915482190671</v>
       </c>
       <c r="D67">
-        <v>0.01348557882539169</v>
+        <v>-0.006289285611573922</v>
       </c>
       <c r="E67">
-        <v>-0.03368686172714698</v>
+        <v>-0.08537671588570153</v>
       </c>
       <c r="F67">
-        <v>-0.05551867544519323</v>
+        <v>0.004159577577272961</v>
       </c>
       <c r="G67">
-        <v>0.04617757231003122</v>
+        <v>0.06791000271306211</v>
       </c>
       <c r="H67">
-        <v>0.01054877722842106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.05507417996984586</v>
+      </c>
+      <c r="I67">
+        <v>-0.0333289863643671</v>
+      </c>
+      <c r="J67">
+        <v>0.1237078601284913</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.04252348581595073</v>
+        <v>0.05613196968918319</v>
       </c>
       <c r="C68">
-        <v>-0.2926444763590356</v>
+        <v>0.2754060530500717</v>
       </c>
       <c r="D68">
-        <v>-0.0036132879212985</v>
+        <v>-0.06583474029039305</v>
       </c>
       <c r="E68">
-        <v>0.02085440812071452</v>
+        <v>-0.03029839105683353</v>
       </c>
       <c r="F68">
-        <v>0.02127907580580224</v>
+        <v>0.05706859037407376</v>
       </c>
       <c r="G68">
-        <v>-0.02312621359159496</v>
+        <v>-0.03843245168534978</v>
       </c>
       <c r="H68">
-        <v>0.03266218773308305</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.0463157937186824</v>
+      </c>
+      <c r="I68">
+        <v>-0.0464397783545952</v>
+      </c>
+      <c r="J68">
+        <v>0.007720225484919111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.05002967106924717</v>
+        <v>0.03771911524409219</v>
       </c>
       <c r="C69">
-        <v>0.009414544605380666</v>
+        <v>0.0004224494738302316</v>
       </c>
       <c r="D69">
-        <v>-0.004922930679740745</v>
+        <v>-0.01254240107151826</v>
       </c>
       <c r="E69">
-        <v>0.04261870711530201</v>
+        <v>-0.02141637461995315</v>
       </c>
       <c r="F69">
-        <v>0.001612745827599966</v>
+        <v>0.003301531108383817</v>
       </c>
       <c r="G69">
-        <v>0.0103391201672283</v>
+        <v>-0.0002315036140871986</v>
       </c>
       <c r="H69">
-        <v>-0.001186818290029759</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02080536067537656</v>
+      </c>
+      <c r="I69">
+        <v>0.0006820814423310791</v>
+      </c>
+      <c r="J69">
+        <v>-0.01513458043362236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.08064062115732976</v>
+        <v>0.04340794842859948</v>
       </c>
       <c r="C70">
-        <v>0.01351235530999729</v>
+        <v>0.004622051035228757</v>
       </c>
       <c r="D70">
-        <v>0.03034327100779587</v>
+        <v>-0.02091502366758123</v>
       </c>
       <c r="E70">
-        <v>-0.05133986418435685</v>
+        <v>-0.03114235488450934</v>
       </c>
       <c r="F70">
-        <v>-0.04400462356145091</v>
+        <v>0.01976736868574966</v>
       </c>
       <c r="G70">
-        <v>-0.03731551745296477</v>
+        <v>0.0525753356061518</v>
       </c>
       <c r="H70">
-        <v>0.0222903057255728</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.006805815410546544</v>
+      </c>
+      <c r="I70">
+        <v>-0.0165050569174418</v>
+      </c>
+      <c r="J70">
+        <v>-0.08967001494551195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.05425731497276704</v>
+        <v>0.06439542407971373</v>
       </c>
       <c r="C71">
-        <v>-0.3027353155147376</v>
+        <v>0.2971943519301739</v>
       </c>
       <c r="D71">
-        <v>0.001662393102546143</v>
+        <v>-0.07251972408906683</v>
       </c>
       <c r="E71">
-        <v>-0.00521257571851623</v>
+        <v>-0.03007931951475825</v>
       </c>
       <c r="F71">
-        <v>0.003170148828707347</v>
+        <v>0.04896096048708239</v>
       </c>
       <c r="G71">
-        <v>0.004381604165547557</v>
+        <v>-0.0141802105022377</v>
       </c>
       <c r="H71">
-        <v>-0.003962204910524491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.05421643183753955</v>
+      </c>
+      <c r="I71">
+        <v>-0.03878060987779561</v>
+      </c>
+      <c r="J71">
+        <v>0.0252816588677024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1278287092472612</v>
+        <v>0.1320684016915006</v>
       </c>
       <c r="C72">
-        <v>-0.01134721065183043</v>
+        <v>0.0278816073728462</v>
       </c>
       <c r="D72">
-        <v>0.07939222251552003</v>
+        <v>0.01131025710771028</v>
       </c>
       <c r="E72">
-        <v>0.1262756387039606</v>
+        <v>-0.01498475580921865</v>
       </c>
       <c r="F72">
-        <v>0.003340139261103422</v>
+        <v>0.00670572836030827</v>
       </c>
       <c r="G72">
-        <v>0.04284114608107619</v>
+        <v>-0.03202432041623449</v>
       </c>
       <c r="H72">
-        <v>0.07497423017210648</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.06154376384389963</v>
+      </c>
+      <c r="I72">
+        <v>0.01626250648803381</v>
+      </c>
+      <c r="J72">
+        <v>-0.0144975884559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2721616749940804</v>
+        <v>0.2299964082645737</v>
       </c>
       <c r="C73">
-        <v>0.1336411912932469</v>
+        <v>-0.007988090130456474</v>
       </c>
       <c r="D73">
-        <v>0.1312431350355855</v>
+        <v>0.02996477624469303</v>
       </c>
       <c r="E73">
-        <v>-0.07890305938864911</v>
+        <v>0.005893371388722176</v>
       </c>
       <c r="F73">
-        <v>0.1157177183813001</v>
+        <v>0.04163002800104753</v>
       </c>
       <c r="G73">
-        <v>-0.3800920139810328</v>
+        <v>0.2540213575598566</v>
       </c>
       <c r="H73">
-        <v>-0.4115156389954757</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.1836175053527427</v>
+      </c>
+      <c r="I73">
+        <v>0.1945453133186691</v>
+      </c>
+      <c r="J73">
+        <v>0.2649398434007895</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.100993192232032</v>
+        <v>0.1126379625793782</v>
       </c>
       <c r="C74">
-        <v>0.03885972533278333</v>
+        <v>-0.02365211525704598</v>
       </c>
       <c r="D74">
-        <v>-0.006966210915157234</v>
+        <v>0.02356998008485478</v>
       </c>
       <c r="E74">
-        <v>0.01667117944797561</v>
+        <v>-0.01322362550835777</v>
       </c>
       <c r="F74">
-        <v>-0.09169085832759499</v>
+        <v>-0.01474439281940085</v>
       </c>
       <c r="G74">
-        <v>-0.02990781457918376</v>
+        <v>0.00696284399304767</v>
       </c>
       <c r="H74">
-        <v>0.02142256065620677</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.002798930932300803</v>
+      </c>
+      <c r="I74">
+        <v>0.1114325379666748</v>
+      </c>
+      <c r="J74">
+        <v>-0.1007952831549256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09835379514210232</v>
+        <v>0.1284056809021241</v>
       </c>
       <c r="C75">
-        <v>0.02083642550289637</v>
+        <v>-0.02815069598132501</v>
       </c>
       <c r="D75">
-        <v>0.006075960964386212</v>
+        <v>0.02324208143177095</v>
       </c>
       <c r="E75">
-        <v>0.06979997353767962</v>
+        <v>-0.01345474711776029</v>
       </c>
       <c r="F75">
-        <v>-0.05979873930294569</v>
+        <v>-0.01453470307795608</v>
       </c>
       <c r="G75">
-        <v>-0.01559830149544432</v>
+        <v>-0.01694804664306608</v>
       </c>
       <c r="H75">
-        <v>0.02264406994208685</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.006016217551656445</v>
+      </c>
+      <c r="I75">
+        <v>0.03393819423339606</v>
+      </c>
+      <c r="J75">
+        <v>-0.08665858929692923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.1459958684639359</v>
+        <v>0.04133831645876451</v>
       </c>
       <c r="C76">
-        <v>0.03221202624814609</v>
+        <v>0.004702468525418069</v>
       </c>
       <c r="D76">
-        <v>-0.03699824555136678</v>
+        <v>0.009661892966611785</v>
       </c>
       <c r="E76">
-        <v>0.04486359174365475</v>
+        <v>-0.02427565794792065</v>
       </c>
       <c r="F76">
-        <v>-0.1800742259180006</v>
+        <v>-0.02300403017333975</v>
       </c>
       <c r="G76">
-        <v>-0.03453657835169305</v>
+        <v>0.04803493624699748</v>
       </c>
       <c r="H76">
-        <v>0.0337878393507681</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.04404071424793102</v>
+      </c>
+      <c r="I76">
+        <v>0.03279394631784142</v>
+      </c>
+      <c r="J76">
+        <v>-0.04891741435397989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.0738566838351135</v>
+        <v>0.0903512758436837</v>
       </c>
       <c r="C77">
-        <v>-0.01348469485607283</v>
+        <v>-0.07533999247013645</v>
       </c>
       <c r="D77">
-        <v>-0.01649616952371621</v>
+        <v>0.01430111948407449</v>
       </c>
       <c r="E77">
-        <v>-0.1073170185255158</v>
+        <v>0.005564589426903309</v>
       </c>
       <c r="F77">
-        <v>0.213948584572077</v>
+        <v>0.0140938670729052</v>
       </c>
       <c r="G77">
-        <v>0.08513300371302741</v>
+        <v>-0.002284715920890113</v>
       </c>
       <c r="H77">
-        <v>-0.2635903583933908</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.0757709418677187</v>
+      </c>
+      <c r="I77">
+        <v>-0.1736710700477391</v>
+      </c>
+      <c r="J77">
+        <v>0.1623577095842949</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.2288143119427923</v>
+        <v>0.1510498157766249</v>
       </c>
       <c r="C78">
-        <v>0.04326686292464111</v>
+        <v>-0.02932580669350718</v>
       </c>
       <c r="D78">
-        <v>-0.159056392265349</v>
+        <v>0.1481420384141154</v>
       </c>
       <c r="E78">
-        <v>-0.09637806569057933</v>
+        <v>-0.2516376051275174</v>
       </c>
       <c r="F78">
-        <v>0.09962147810849881</v>
+        <v>-0.3212365448846742</v>
       </c>
       <c r="G78">
-        <v>0.1867687235449847</v>
+        <v>-0.05654595572540404</v>
       </c>
       <c r="H78">
-        <v>0.1011887009358622</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.4858631723368587</v>
+      </c>
+      <c r="I78">
+        <v>-0.6645195431524858</v>
+      </c>
+      <c r="J78">
+        <v>-0.07920985983057327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.1387178374724559</v>
+        <v>0.1439000258028343</v>
       </c>
       <c r="C79">
-        <v>0.01665458294943785</v>
+        <v>-0.01929316642947936</v>
       </c>
       <c r="D79">
-        <v>0.006308949718126358</v>
+        <v>0.04137559821152398</v>
       </c>
       <c r="E79">
-        <v>0.05325696962509919</v>
+        <v>0.00720391872352649</v>
       </c>
       <c r="F79">
-        <v>-0.07482112523463877</v>
+        <v>-0.01285591293851677</v>
       </c>
       <c r="G79">
-        <v>0.01949526144294973</v>
+        <v>0.02261393308187385</v>
       </c>
       <c r="H79">
-        <v>0.06945746164726319</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.01593805710636647</v>
+      </c>
+      <c r="I79">
+        <v>0.1093816568775124</v>
+      </c>
+      <c r="J79">
+        <v>-0.09692478288337728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.04319952338063037</v>
+        <v>0.08111866354529121</v>
       </c>
       <c r="C80">
-        <v>-0.009699665063020207</v>
+        <v>-0.04441415510411656</v>
       </c>
       <c r="D80">
-        <v>0.1056616540202653</v>
+        <v>-0.0161750709712673</v>
       </c>
       <c r="E80">
-        <v>-0.04606356863579787</v>
+        <v>-0.03347964836873885</v>
       </c>
       <c r="F80">
-        <v>0.04078679326487179</v>
+        <v>0.05051665962696931</v>
       </c>
       <c r="G80">
-        <v>0.02010075213526524</v>
+        <v>-0.006192567275733052</v>
       </c>
       <c r="H80">
-        <v>0.1233696611985174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.02156989995796939</v>
+      </c>
+      <c r="I80">
+        <v>-0.0327178164483125</v>
+      </c>
+      <c r="J80">
+        <v>-0.131201274672153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1091265635675994</v>
+        <v>0.1479803669108746</v>
       </c>
       <c r="C81">
-        <v>0.005086874128722387</v>
+        <v>-0.03762046323652497</v>
       </c>
       <c r="D81">
-        <v>-0.002869421730693933</v>
+        <v>0.02903857545110635</v>
       </c>
       <c r="E81">
-        <v>0.02385034770006321</v>
+        <v>-0.02403363093342627</v>
       </c>
       <c r="F81">
-        <v>-0.1082782966740855</v>
+        <v>-0.02190388579431998</v>
       </c>
       <c r="G81">
-        <v>0.02405685317321955</v>
+        <v>0.004064504073698669</v>
       </c>
       <c r="H81">
-        <v>0.03323128342183785</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.01143304332931706</v>
+      </c>
+      <c r="I81">
+        <v>0.02682449207832295</v>
+      </c>
+      <c r="J81">
+        <v>-0.1398209912983939</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1197110956824726</v>
+        <v>0.1645385207120146</v>
       </c>
       <c r="C82">
-        <v>0.02355955421521284</v>
+        <v>-0.04731109035673083</v>
       </c>
       <c r="D82">
-        <v>0.02304609244815407</v>
+        <v>-0.007235371230058534</v>
       </c>
       <c r="E82">
-        <v>-0.02530688581686332</v>
+        <v>0.0002151760185136244</v>
       </c>
       <c r="F82">
-        <v>-0.21299397539084</v>
+        <v>0.003834918183975617</v>
       </c>
       <c r="G82">
-        <v>0.02171728159561402</v>
+        <v>0.05453930292659586</v>
       </c>
       <c r="H82">
-        <v>0.07234668842506185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.04034811548933596</v>
+      </c>
+      <c r="I82">
+        <v>0.146142486602366</v>
+      </c>
+      <c r="J82">
+        <v>-0.1825511350391092</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.1114957810455186</v>
+        <v>0.09029810210055589</v>
       </c>
       <c r="C83">
-        <v>0.04675006128095149</v>
+        <v>-0.03094594417943671</v>
       </c>
       <c r="D83">
-        <v>0.03044899589514866</v>
+        <v>-0.0004051233999361641</v>
       </c>
       <c r="E83">
-        <v>-0.08568581688159042</v>
+        <v>0.04813281916653184</v>
       </c>
       <c r="F83">
-        <v>0.0297303491145099</v>
+        <v>-0.04280498829511809</v>
       </c>
       <c r="G83">
-        <v>0.06158958072167528</v>
+        <v>-0.05730099773752852</v>
       </c>
       <c r="H83">
-        <v>-0.0532134499748937</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.04468283725513945</v>
+      </c>
+      <c r="I83">
+        <v>-0.07153371074475838</v>
+      </c>
+      <c r="J83">
+        <v>-0.1194721087459379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.04942622369506862</v>
+        <v>0.06562909440186378</v>
       </c>
       <c r="C84">
-        <v>0.02925122188963695</v>
+        <v>-0.01719171017149336</v>
       </c>
       <c r="D84">
-        <v>-0.01097576200718465</v>
+        <v>-0.003241080063047318</v>
       </c>
       <c r="E84">
-        <v>0.04377495280029405</v>
+        <v>0.0225904885536682</v>
       </c>
       <c r="F84">
-        <v>-0.06087527985241643</v>
+        <v>0.08471041252797959</v>
       </c>
       <c r="G84">
-        <v>0.005704842875089703</v>
+        <v>0.0252030268950553</v>
       </c>
       <c r="H84">
-        <v>0.06275583618161744</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.08348412791795537</v>
+      </c>
+      <c r="I84">
+        <v>-0.09332410913961615</v>
+      </c>
+      <c r="J84">
+        <v>0.1462340042416779</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.112437472586586</v>
+        <v>0.123763451834891</v>
       </c>
       <c r="C85">
-        <v>0.01755644557860302</v>
+        <v>-0.00913727067637285</v>
       </c>
       <c r="D85">
-        <v>-0.00133869459158607</v>
+        <v>0.01171449740498338</v>
       </c>
       <c r="E85">
-        <v>0.07803176190986018</v>
+        <v>0.0007195356835624418</v>
       </c>
       <c r="F85">
-        <v>-0.1055614716519595</v>
+        <v>-0.01542406344089778</v>
       </c>
       <c r="G85">
-        <v>0.04148801462489096</v>
+        <v>0.0214895907684189</v>
       </c>
       <c r="H85">
-        <v>0.09513098387015152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.01464046436319335</v>
+      </c>
+      <c r="I85">
+        <v>0.06870434027020039</v>
+      </c>
+      <c r="J85">
+        <v>-0.08923691228303804</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0631422532724271</v>
+        <v>0.1083201334155048</v>
       </c>
       <c r="C86">
-        <v>0.02527228133228051</v>
+        <v>0.08076837200673451</v>
       </c>
       <c r="D86">
-        <v>-0.0286550491911474</v>
+        <v>0.3252655601145634</v>
       </c>
       <c r="E86">
-        <v>-0.1084135174573961</v>
+        <v>0.8592221293583518</v>
       </c>
       <c r="F86">
-        <v>-0.04721193857475936</v>
+        <v>-0.156489856973479</v>
       </c>
       <c r="G86">
-        <v>-0.05745376598531169</v>
+        <v>-0.1232115167668074</v>
       </c>
       <c r="H86">
-        <v>0.2132888256278833</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.1009319886811957</v>
+      </c>
+      <c r="I86">
+        <v>-0.1783184266647773</v>
+      </c>
+      <c r="J86">
+        <v>-0.02887409300672394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1138023043289624</v>
+        <v>0.1154752150552588</v>
       </c>
       <c r="C87">
-        <v>0.04907995105688243</v>
+        <v>-0.08842042957393212</v>
       </c>
       <c r="D87">
-        <v>-0.0292069854391071</v>
+        <v>-0.06025146433731628</v>
       </c>
       <c r="E87">
-        <v>-0.02841979384928554</v>
+        <v>0.01195945802189044</v>
       </c>
       <c r="F87">
-        <v>0.07176915127705095</v>
+        <v>0.001066198818759853</v>
       </c>
       <c r="G87">
-        <v>0.1279229087583186</v>
+        <v>0.01127666542318228</v>
       </c>
       <c r="H87">
-        <v>0.02822270143879456</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.07531346676862916</v>
+      </c>
+      <c r="I87">
+        <v>-0.1774021099132576</v>
+      </c>
+      <c r="J87">
+        <v>0.06172428399559581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.07399872887147341</v>
+        <v>0.05653518167983559</v>
       </c>
       <c r="C88">
-        <v>0.04328461126945195</v>
+        <v>-0.02658851096214584</v>
       </c>
       <c r="D88">
-        <v>-0.008228015887046566</v>
+        <v>0.0258475515063189</v>
       </c>
       <c r="E88">
-        <v>-0.02501228641758331</v>
+        <v>-0.03385533397177239</v>
       </c>
       <c r="F88">
-        <v>-0.01756632856720377</v>
+        <v>0.05472884746044566</v>
       </c>
       <c r="G88">
-        <v>0.05395810801242244</v>
+        <v>0.009618781811119548</v>
       </c>
       <c r="H88">
-        <v>0.01750437377091133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.006596690935560463</v>
+      </c>
+      <c r="I88">
+        <v>-0.0308052728238503</v>
+      </c>
+      <c r="J88">
+        <v>-0.06106322079066205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.09607569679068796</v>
+        <v>0.1029256107607139</v>
       </c>
       <c r="C89">
-        <v>-0.3871073564960308</v>
+        <v>0.3711066680569305</v>
       </c>
       <c r="D89">
-        <v>-0.01503756692505639</v>
+        <v>-0.08681033939286208</v>
       </c>
       <c r="E89">
-        <v>-0.04899263908098935</v>
+        <v>-0.01375263798084821</v>
       </c>
       <c r="F89">
-        <v>0.007107071143527989</v>
+        <v>-0.004687478613164953</v>
       </c>
       <c r="G89">
-        <v>-0.007102299539889627</v>
+        <v>0.03224411808192731</v>
       </c>
       <c r="H89">
-        <v>-0.02978658212334048</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.02856733670447942</v>
+      </c>
+      <c r="I89">
+        <v>-0.04156836000044954</v>
+      </c>
+      <c r="J89">
+        <v>-0.02252225860114447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.07383465036093961</v>
+        <v>0.07352526147981231</v>
       </c>
       <c r="C90">
-        <v>-0.3016828308745682</v>
+        <v>0.302020043151693</v>
       </c>
       <c r="D90">
-        <v>-0.0297031169664301</v>
+        <v>-0.06752044166903738</v>
       </c>
       <c r="E90">
-        <v>-0.01179963132747445</v>
+        <v>-0.01643667870566146</v>
       </c>
       <c r="F90">
-        <v>-0.00934847474397721</v>
+        <v>0.05701278917999197</v>
       </c>
       <c r="G90">
-        <v>0.02626886001776888</v>
+        <v>-0.00192797872862762</v>
       </c>
       <c r="H90">
-        <v>-0.04032736387136655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06758949990847325</v>
+      </c>
+      <c r="I90">
+        <v>-0.02155934031712025</v>
+      </c>
+      <c r="J90">
+        <v>0.02169679532392385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.08394164100283764</v>
+        <v>0.09346335055836627</v>
       </c>
       <c r="C91">
-        <v>0.03165849518717129</v>
+        <v>-0.01996252326858652</v>
       </c>
       <c r="D91">
-        <v>-0.00479322136991225</v>
+        <v>0.0199773465527067</v>
       </c>
       <c r="E91">
-        <v>0.01289530877746978</v>
+        <v>0.00909339765672885</v>
       </c>
       <c r="F91">
-        <v>-0.04148660734723991</v>
+        <v>-0.01897868166331738</v>
       </c>
       <c r="G91">
-        <v>-0.03453040786060045</v>
+        <v>0.02150721677913955</v>
       </c>
       <c r="H91">
-        <v>-0.008579745638846427</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.0106688721203075</v>
+      </c>
+      <c r="I91">
+        <v>0.03584846051415159</v>
+      </c>
+      <c r="J91">
+        <v>-0.06817181409095162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.06989923656276646</v>
+        <v>0.08600788325258882</v>
       </c>
       <c r="C92">
-        <v>-0.3608300924129523</v>
+        <v>0.3351312225256339</v>
       </c>
       <c r="D92">
-        <v>-0.02471124461139029</v>
+        <v>-0.0977963365618378</v>
       </c>
       <c r="E92">
-        <v>-0.02021988624330229</v>
+        <v>-0.004899929046442774</v>
       </c>
       <c r="F92">
-        <v>0.05566600169627593</v>
+        <v>0.004754539864390211</v>
       </c>
       <c r="G92">
-        <v>-0.01045976903200174</v>
+        <v>-0.02895259024801463</v>
       </c>
       <c r="H92">
-        <v>-0.02441494717089013</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.06279261257018448</v>
+      </c>
+      <c r="I92">
+        <v>-0.02311197843102272</v>
+      </c>
+      <c r="J92">
+        <v>-0.06342185758439096</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.08622426558790652</v>
+        <v>0.08037215401982312</v>
       </c>
       <c r="C93">
-        <v>-0.3131280416227537</v>
+        <v>0.3289964728421075</v>
       </c>
       <c r="D93">
-        <v>0.0148821907914296</v>
+        <v>-0.07313758867114624</v>
       </c>
       <c r="E93">
-        <v>-0.007821130442869433</v>
+        <v>-0.006466066551576862</v>
       </c>
       <c r="F93">
-        <v>0.02160769657535485</v>
+        <v>0.06091002345082534</v>
       </c>
       <c r="G93">
-        <v>-0.02821296098472218</v>
+        <v>0.002367801571362927</v>
       </c>
       <c r="H93">
-        <v>0.003708358921964344</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.03675105847195787</v>
+      </c>
+      <c r="I93">
+        <v>-0.03914304720157039</v>
+      </c>
+      <c r="J93">
+        <v>-0.01029261152106543</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09741709057551926</v>
+        <v>0.14851140571362</v>
       </c>
       <c r="C94">
-        <v>0.0502538306587931</v>
+        <v>-0.03272490163528334</v>
       </c>
       <c r="D94">
-        <v>-0.01232232149724131</v>
+        <v>0.02381370269358223</v>
       </c>
       <c r="E94">
-        <v>0.02886704796578786</v>
+        <v>-0.04992549743422636</v>
       </c>
       <c r="F94">
-        <v>-0.08031444138154818</v>
+        <v>-0.0260739485994623</v>
       </c>
       <c r="G94">
-        <v>-0.02227855029367069</v>
+        <v>0.01042297133863795</v>
       </c>
       <c r="H94">
-        <v>0.03938428020289608</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.0007925456395726882</v>
+      </c>
+      <c r="I94">
+        <v>0.04456761865164977</v>
+      </c>
+      <c r="J94">
+        <v>-0.0552145397083797</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1305247420460977</v>
+        <v>0.1297892027891528</v>
       </c>
       <c r="C95">
-        <v>0.06110475777604395</v>
+        <v>-0.04111252691788801</v>
       </c>
       <c r="D95">
-        <v>-0.07240334163361985</v>
+        <v>0.03315183797992686</v>
       </c>
       <c r="E95">
-        <v>-0.06859093855933121</v>
+        <v>-0.04345047464832055</v>
       </c>
       <c r="F95">
-        <v>0.1629499585136329</v>
+        <v>0.01401545783821332</v>
       </c>
       <c r="G95">
-        <v>0.07010435016238353</v>
+        <v>0.01662631333497504</v>
       </c>
       <c r="H95">
-        <v>0.0454754128963383</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1072928380468265</v>
+      </c>
+      <c r="I95">
+        <v>-0.1251125953727407</v>
+      </c>
+      <c r="J95">
+        <v>0.1035983447828893</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01227150675491155</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0002295350731962089</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.002237665085572343</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.003028803268388257</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0024671941400554</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.009172255719175442</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.0004086246994057522</v>
+      </c>
+      <c r="I96">
+        <v>-0.02217980764687627</v>
+      </c>
+      <c r="J96">
+        <v>0.0097111599445328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.1431914803566046</v>
+        <v>0.1732365347816495</v>
       </c>
       <c r="C97">
-        <v>-0.03850326947922884</v>
+        <v>0.01807564327127101</v>
       </c>
       <c r="D97">
-        <v>0.1422888956281591</v>
+        <v>0.04991340581465418</v>
       </c>
       <c r="E97">
-        <v>0.8783216421093432</v>
+        <v>-0.09705249902891284</v>
       </c>
       <c r="F97">
-        <v>0.1737103812991399</v>
+        <v>-0.05129469782111687</v>
       </c>
       <c r="G97">
-        <v>0.07340882757083469</v>
+        <v>-0.8608926115169574</v>
       </c>
       <c r="H97">
-        <v>-0.02638558413670722</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1707727359189457</v>
+      </c>
+      <c r="I97">
+        <v>0.2827428162731729</v>
+      </c>
+      <c r="J97">
+        <v>0.1731240903304035</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.3191350170311169</v>
+        <v>0.2473531482439242</v>
       </c>
       <c r="C98">
-        <v>0.06873825602058514</v>
+        <v>0.008246860251704393</v>
       </c>
       <c r="D98">
-        <v>0.1768803759864606</v>
+        <v>-0.06224314069762338</v>
       </c>
       <c r="E98">
-        <v>-0.1244459024995936</v>
+        <v>0.1429154573230648</v>
       </c>
       <c r="F98">
-        <v>-0.04479534675220589</v>
+        <v>-0.1520653714957969</v>
       </c>
       <c r="G98">
-        <v>-0.224688169731468</v>
+        <v>0.1649491918575986</v>
       </c>
       <c r="H98">
-        <v>-0.1240140491594289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.3551255024123142</v>
+      </c>
+      <c r="I98">
+        <v>0.2477329062024714</v>
+      </c>
+      <c r="J98">
+        <v>-0.2721097114319771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.09036604384709566</v>
+        <v>0.05787929118569823</v>
       </c>
       <c r="C99">
-        <v>0.01665391030121269</v>
+        <v>0.006273793620520903</v>
       </c>
       <c r="D99">
-        <v>-0.01500281949672976</v>
+        <v>0.02126846211218543</v>
       </c>
       <c r="E99">
-        <v>0.008167648335360263</v>
+        <v>-0.04316525360770423</v>
       </c>
       <c r="F99">
-        <v>-0.0220831795964354</v>
+        <v>0.00772659553131332</v>
       </c>
       <c r="G99">
-        <v>0.006654908147344581</v>
+        <v>0.01280534715784613</v>
       </c>
       <c r="H99">
-        <v>-0.07026679005191082</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02857146305391324</v>
+      </c>
+      <c r="I99">
+        <v>0.01570439650022769</v>
+      </c>
+      <c r="J99">
+        <v>0.002035716724069147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.09328372708731177</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2158290111218298</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.883874174160313</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2529577426988914</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.09288103733243619</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.1006953308539516</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.03173494614642222</v>
+      </c>
+      <c r="I100">
+        <v>-0.139584865200179</v>
+      </c>
+      <c r="J100">
+        <v>0.002167593567220075</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05816554714462691</v>
+        <v>0.03765017800468513</v>
       </c>
       <c r="C101">
-        <v>-0.001044205607058492</v>
+        <v>-0.005094281664204427</v>
       </c>
       <c r="D101">
-        <v>-0.03995298237770462</v>
+        <v>-0.005984438996743235</v>
       </c>
       <c r="E101">
-        <v>-0.02901992572871302</v>
+        <v>-0.00980680482678155</v>
       </c>
       <c r="F101">
-        <v>-0.01145285804644969</v>
+        <v>0.0227843270184211</v>
       </c>
       <c r="G101">
-        <v>0.04692409534669767</v>
+        <v>0.008340072690747486</v>
       </c>
       <c r="H101">
-        <v>0.1057373079258966</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.05966810590639177</v>
+      </c>
+      <c r="I101">
+        <v>-0.01491989898109338</v>
+      </c>
+      <c r="J101">
+        <v>-0.1175197296877111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
